--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H2">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I2">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J2">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N2">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O2">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P2">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q2">
-        <v>13.19949166897411</v>
+        <v>88.15209922591012</v>
       </c>
       <c r="R2">
-        <v>118.795425020767</v>
+        <v>793.3688930331911</v>
       </c>
       <c r="S2">
-        <v>6.216534223256061E-05</v>
+        <v>0.0002673880312795107</v>
       </c>
       <c r="T2">
-        <v>6.216534223256059E-05</v>
+        <v>0.0002673880312795107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H3">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I3">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J3">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>23.192627</v>
       </c>
       <c r="O3">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P3">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q3">
-        <v>117.4241133065281</v>
+        <v>268.3313784046608</v>
       </c>
       <c r="R3">
-        <v>1056.817019758753</v>
+        <v>2414.982405641947</v>
       </c>
       <c r="S3">
-        <v>0.000553029644862274</v>
+        <v>0.0008139182121830962</v>
       </c>
       <c r="T3">
-        <v>0.0005530296448622737</v>
+        <v>0.0008139182121830964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H4">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I4">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J4">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N4">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O4">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P4">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q4">
-        <v>1017.935373458219</v>
+        <v>2376.885112004763</v>
       </c>
       <c r="R4">
-        <v>9161.418361123973</v>
+        <v>21391.96600804287</v>
       </c>
       <c r="S4">
-        <v>0.004794146808729177</v>
+        <v>0.007209705001440607</v>
       </c>
       <c r="T4">
-        <v>0.004794146808729177</v>
+        <v>0.007209705001440607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H5">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I5">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J5">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N5">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O5">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P5">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q5">
-        <v>53.44155918532567</v>
+        <v>106.3811669451133</v>
       </c>
       <c r="R5">
-        <v>480.974032667931</v>
+        <v>957.43050250602</v>
       </c>
       <c r="S5">
-        <v>0.0002516924817647635</v>
+        <v>0.0003226814907921115</v>
       </c>
       <c r="T5">
-        <v>0.0002516924817647634</v>
+        <v>0.0003226814907921115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H6">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I6">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J6">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N6">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O6">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P6">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q6">
-        <v>412.6964755774055</v>
+        <v>923.35996816029</v>
       </c>
       <c r="R6">
-        <v>3714.26828019665</v>
+        <v>8310.23971344261</v>
       </c>
       <c r="S6">
-        <v>0.001943667096115907</v>
+        <v>0.002800788707435828</v>
       </c>
       <c r="T6">
-        <v>0.001943667096115906</v>
+        <v>0.002800788707435828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.18897966666667</v>
+        <v>34.70905366666667</v>
       </c>
       <c r="H7">
-        <v>45.566939</v>
+        <v>104.127161</v>
       </c>
       <c r="I7">
-        <v>0.01327029680642083</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="J7">
-        <v>0.01327029680642082</v>
+        <v>0.01618617796956752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N7">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O7">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P7">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q7">
-        <v>1202.969002151573</v>
+        <v>1573.126005908033</v>
       </c>
       <c r="R7">
-        <v>10826.72101936416</v>
+        <v>14158.13405317229</v>
       </c>
       <c r="S7">
-        <v>0.005665595432716145</v>
+        <v>0.004771696526436361</v>
       </c>
       <c r="T7">
-        <v>0.005665595432716142</v>
+        <v>0.004771696526436361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>286.50943</v>
       </c>
       <c r="I8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J8">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N8">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O8">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P8">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q8">
-        <v>82.99391877886555</v>
+        <v>242.5535034275923</v>
       </c>
       <c r="R8">
-        <v>746.94526900979</v>
+        <v>2182.98153084833</v>
       </c>
       <c r="S8">
-        <v>0.0003908745498310929</v>
+        <v>0.0007357272751411592</v>
       </c>
       <c r="T8">
-        <v>0.0003908745498310928</v>
+        <v>0.0007357272751411592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>286.50943</v>
       </c>
       <c r="I9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J9">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>23.192627</v>
       </c>
       <c r="O9">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P9">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q9">
         <v>738.3229268858456</v>
@@ -1013,10 +1013,10 @@
         <v>6644.906341972611</v>
       </c>
       <c r="S9">
-        <v>0.003477262502152987</v>
+        <v>0.00223952368238675</v>
       </c>
       <c r="T9">
-        <v>0.003477262502152986</v>
+        <v>0.00223952368238675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>286.50943</v>
       </c>
       <c r="I10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J10">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N10">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O10">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P10">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q10">
-        <v>6400.431760982486</v>
+        <v>6540.080340958983</v>
       </c>
       <c r="R10">
-        <v>57603.88584884237</v>
+        <v>58860.72306863083</v>
       </c>
       <c r="S10">
-        <v>0.03014396620991627</v>
+        <v>0.01983774886968154</v>
       </c>
       <c r="T10">
-        <v>0.03014396620991626</v>
+        <v>0.01983774886968154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>286.50943</v>
       </c>
       <c r="I11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J11">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N11">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O11">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P11">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q11">
-        <v>336.0223661391634</v>
+        <v>292.7114041280667</v>
       </c>
       <c r="R11">
-        <v>3024.20129525247</v>
+        <v>2634.4026371526</v>
       </c>
       <c r="S11">
-        <v>0.001582556806936445</v>
+        <v>0.0008878691122520676</v>
       </c>
       <c r="T11">
-        <v>0.001582556806936445</v>
+        <v>0.0008878691122520676</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>286.50943</v>
       </c>
       <c r="I12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J12">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N12">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O12">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P12">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q12">
-        <v>2594.895215162278</v>
+        <v>2540.656401478408</v>
       </c>
       <c r="R12">
-        <v>23354.0569364605</v>
+        <v>22865.90761330567</v>
       </c>
       <c r="S12">
-        <v>0.01222111829407553</v>
+        <v>0.007706465521689156</v>
       </c>
       <c r="T12">
-        <v>0.01222111829407552</v>
+        <v>0.007706465521689156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>286.50943</v>
       </c>
       <c r="I13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="J13">
-        <v>0.08343911742543099</v>
+        <v>0.04453681997475516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N13">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O13">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P13">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q13">
-        <v>7563.860348708438</v>
+        <v>4328.509784981913</v>
       </c>
       <c r="R13">
-        <v>68074.74313837594</v>
+        <v>38956.58806483722</v>
       </c>
       <c r="S13">
-        <v>0.03562333906251868</v>
+        <v>0.01312948551360448</v>
       </c>
       <c r="T13">
-        <v>0.03562333906251867</v>
+        <v>0.01312948551360448</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H14">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I14">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J14">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N14">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O14">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P14">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q14">
-        <v>349.4244531618335</v>
+        <v>2611.192145242645</v>
       </c>
       <c r="R14">
-        <v>3144.820078456501</v>
+        <v>23500.72930718381</v>
       </c>
       <c r="S14">
-        <v>0.001645676307845195</v>
+        <v>0.007920418607611944</v>
       </c>
       <c r="T14">
-        <v>0.001645676307845195</v>
+        <v>0.007920418607611945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H15">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I15">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J15">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>23.192627</v>
       </c>
       <c r="O15">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P15">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q15">
-        <v>3108.517934564957</v>
+        <v>7948.361908169273</v>
       </c>
       <c r="R15">
-        <v>27976.66141108462</v>
+        <v>71535.25717352347</v>
       </c>
       <c r="S15">
-        <v>0.01464011539872446</v>
+        <v>0.02410942973775216</v>
       </c>
       <c r="T15">
-        <v>0.01464011539872445</v>
+        <v>0.02410942973775217</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H16">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I16">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J16">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N16">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O16">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P16">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q16">
-        <v>26947.36434894618</v>
+        <v>70406.76046415436</v>
       </c>
       <c r="R16">
-        <v>242526.2791405156</v>
+        <v>633660.8441773893</v>
       </c>
       <c r="S16">
-        <v>0.1269133818960121</v>
+        <v>0.2135618463382538</v>
       </c>
       <c r="T16">
-        <v>0.1269133818960121</v>
+        <v>0.2135618463382539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H17">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I17">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J17">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N17">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O17">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P17">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q17">
-        <v>1414.735359721587</v>
+        <v>3151.163386556986</v>
       </c>
       <c r="R17">
-        <v>12732.61823749429</v>
+        <v>28360.47047901288</v>
       </c>
       <c r="S17">
-        <v>0.006662946574853414</v>
+        <v>0.009558290517985665</v>
       </c>
       <c r="T17">
-        <v>0.006662946574853412</v>
+        <v>0.009558290517985667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H18">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I18">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J18">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N18">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O18">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P18">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q18">
-        <v>10925.13590045388</v>
+        <v>27351.25217963016</v>
       </c>
       <c r="R18">
-        <v>98326.22310408489</v>
+        <v>246161.2696166714</v>
       </c>
       <c r="S18">
-        <v>0.0514538611956816</v>
+        <v>0.08296339551254998</v>
       </c>
       <c r="T18">
-        <v>0.05145386119568159</v>
+        <v>0.08296339551255</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>402.0913113333333</v>
+        <v>1028.132161333333</v>
       </c>
       <c r="H19">
-        <v>1206.273934</v>
+        <v>3084.396484</v>
       </c>
       <c r="I19">
-        <v>0.3512988470441011</v>
+        <v>0.4794579045397415</v>
       </c>
       <c r="J19">
-        <v>0.351298847044101</v>
+        <v>0.4794579045397416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N19">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O19">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P19">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q19">
-        <v>31845.67984049648</v>
+        <v>46598.25808092183</v>
       </c>
       <c r="R19">
-        <v>286611.1185644683</v>
+        <v>419384.3227282965</v>
       </c>
       <c r="S19">
-        <v>0.1499828656709843</v>
+        <v>0.1413445238255878</v>
       </c>
       <c r="T19">
-        <v>0.1499828656709842</v>
+        <v>0.1413445238255879</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H20">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J20">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N20">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O20">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P20">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q20">
-        <v>32.27961922581277</v>
+        <v>121.5016265441113</v>
       </c>
       <c r="R20">
-        <v>290.516573032315</v>
+        <v>1093.514638897002</v>
       </c>
       <c r="S20">
-        <v>0.0001520265800103616</v>
+        <v>0.000368545740874872</v>
       </c>
       <c r="T20">
-        <v>0.0001520265800103616</v>
+        <v>0.000368545740874872</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H21">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J21">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>23.192627</v>
       </c>
       <c r="O21">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P21">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q21">
-        <v>287.1630029793428</v>
+        <v>369.8459732131594</v>
       </c>
       <c r="R21">
-        <v>2584.467026814085</v>
+        <v>3328.613758918434</v>
       </c>
       <c r="S21">
-        <v>0.001352444988370384</v>
+        <v>0.001121838135705501</v>
       </c>
       <c r="T21">
-        <v>0.001352444988370384</v>
+        <v>0.001121838135705501</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H22">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J22">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N22">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O22">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P22">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q22">
-        <v>2489.381187985603</v>
+        <v>3276.103572723277</v>
       </c>
       <c r="R22">
-        <v>22404.43069187043</v>
+        <v>29484.93215450949</v>
       </c>
       <c r="S22">
-        <v>0.01172418130784358</v>
+        <v>0.009937266296215129</v>
       </c>
       <c r="T22">
-        <v>0.01172418130784358</v>
+        <v>0.009937266296215129</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H23">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J23">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N23">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O23">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P23">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q23">
-        <v>130.6923951769217</v>
+        <v>146.62707900316</v>
       </c>
       <c r="R23">
-        <v>1176.231556592295</v>
+        <v>1319.64371102844</v>
       </c>
       <c r="S23">
-        <v>0.0006155189667238029</v>
+        <v>0.0004447577123086424</v>
       </c>
       <c r="T23">
-        <v>0.0006155189667238028</v>
+        <v>0.0004447577123086424</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H24">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J24">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N24">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O24">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P24">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q24">
-        <v>1009.257433662139</v>
+        <v>1272.683679712289</v>
       </c>
       <c r="R24">
-        <v>9083.31690295925</v>
+        <v>11454.1531174106</v>
       </c>
       <c r="S24">
-        <v>0.004753276515325006</v>
+        <v>0.003860377535510912</v>
       </c>
       <c r="T24">
-        <v>0.004753276515325005</v>
+        <v>0.003860377535510912</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.14495166666666</v>
+        <v>47.840114</v>
       </c>
       <c r="H25">
-        <v>111.434855</v>
+        <v>143.520342</v>
       </c>
       <c r="I25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="J25">
-        <v>0.03245277459674146</v>
+        <v>0.02230970071166346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N25">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O25">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P25">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q25">
-        <v>2941.884604630899</v>
+        <v>2168.267915966852</v>
       </c>
       <c r="R25">
-        <v>26476.96144167809</v>
+        <v>19514.41124370167</v>
       </c>
       <c r="S25">
-        <v>0.01385532623846833</v>
+        <v>0.006576915291048399</v>
       </c>
       <c r="T25">
-        <v>0.01385532623846832</v>
+        <v>0.006576915291048399</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H26">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J26">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N26">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O26">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P26">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q26">
-        <v>349.7310171034486</v>
+        <v>1087.605231906481</v>
       </c>
       <c r="R26">
-        <v>3147.579153931038</v>
+        <v>9788.447087158331</v>
       </c>
       <c r="S26">
-        <v>0.001647120124987901</v>
+        <v>0.003298986913782906</v>
       </c>
       <c r="T26">
-        <v>0.0016471201249879</v>
+        <v>0.003298986913782906</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H27">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J27">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>23.192627</v>
       </c>
       <c r="O27">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P27">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q27">
-        <v>3111.245160727804</v>
+        <v>3310.625766150877</v>
       </c>
       <c r="R27">
-        <v>28001.20644655024</v>
+        <v>29795.6318953579</v>
       </c>
       <c r="S27">
-        <v>0.0146529597530383</v>
+        <v>0.01004198100428351</v>
       </c>
       <c r="T27">
-        <v>0.0146529597530383</v>
+        <v>0.01004198100428351</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H28">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J28">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N28">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O28">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P28">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q28">
-        <v>26971.0063412458</v>
+        <v>29325.59412830379</v>
       </c>
       <c r="R28">
-        <v>242739.0570712122</v>
+        <v>263930.3471547341</v>
       </c>
       <c r="S28">
-        <v>0.1270247280432142</v>
+        <v>0.08895208337550706</v>
       </c>
       <c r="T28">
-        <v>0.1270247280432142</v>
+        <v>0.08895208337550706</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H29">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J29">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N29">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O29">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P29">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q29">
-        <v>1415.976563204326</v>
+        <v>1312.51229138982</v>
       </c>
       <c r="R29">
-        <v>12743.78906883893</v>
+        <v>11812.61062250838</v>
       </c>
       <c r="S29">
-        <v>0.00666879224233969</v>
+        <v>0.003981187977446717</v>
       </c>
       <c r="T29">
-        <v>0.006668792242339689</v>
+        <v>0.003981187977446717</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H30">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J30">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N30">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O30">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P30">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q30">
-        <v>10934.72095580423</v>
+        <v>11392.25430957132</v>
       </c>
       <c r="R30">
-        <v>98412.4886022381</v>
+        <v>102530.2887861419</v>
       </c>
       <c r="S30">
-        <v>0.05149900371034172</v>
+        <v>0.03455564278583233</v>
       </c>
       <c r="T30">
-        <v>0.05149900371034172</v>
+        <v>0.03455564278583233</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>402.444082</v>
+        <v>428.234253</v>
       </c>
       <c r="H31">
-        <v>1207.332246</v>
+        <v>1284.702759</v>
       </c>
       <c r="I31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="J31">
-        <v>0.3516070554658648</v>
+        <v>0.19970224190755</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N31">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O31">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P31">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q31">
-        <v>31873.61931939378</v>
+        <v>19408.95440378615</v>
       </c>
       <c r="R31">
-        <v>286862.5738745441</v>
+        <v>174680.5896340754</v>
       </c>
       <c r="S31">
-        <v>0.1501144515919431</v>
+        <v>0.05887235985069745</v>
       </c>
       <c r="T31">
-        <v>0.1501144515919431</v>
+        <v>0.05887235985069745</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H32">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J32">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.8690176666666666</v>
+        <v>2.539743666666667</v>
       </c>
       <c r="N32">
-        <v>2.607053</v>
+        <v>7.619231000000001</v>
       </c>
       <c r="O32">
-        <v>0.004684547990100866</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="P32">
-        <v>0.004684547990100865</v>
+        <v>0.01651952868566261</v>
       </c>
       <c r="Q32">
-        <v>167.0358893750667</v>
+        <v>1295.129706006029</v>
       </c>
       <c r="R32">
-        <v>1503.3230043756</v>
+        <v>11656.16735405427</v>
       </c>
       <c r="S32">
-        <v>0.0007866850851937552</v>
+        <v>0.003928462116972216</v>
       </c>
       <c r="T32">
-        <v>0.0007866850851937549</v>
+        <v>0.003928462116972216</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H33">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J33">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>23.192627</v>
       </c>
       <c r="O33">
-        <v>0.04167424835552215</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="P33">
-        <v>0.04167424835552214</v>
+        <v>0.05028476850516451</v>
       </c>
       <c r="Q33">
-        <v>1485.969436712329</v>
+        <v>3942.321762920366</v>
       </c>
       <c r="R33">
-        <v>13373.72493041096</v>
+        <v>35480.8958662833</v>
       </c>
       <c r="S33">
-        <v>0.00699843606837375</v>
+        <v>0.01195807773285348</v>
       </c>
       <c r="T33">
-        <v>0.006998436068373748</v>
+        <v>0.01195807773285349</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H34">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J34">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>67.01802199999999</v>
+        <v>68.48026266666666</v>
       </c>
       <c r="N34">
-        <v>201.054066</v>
+        <v>205.440788</v>
       </c>
       <c r="O34">
-        <v>0.3612689963655924</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="P34">
-        <v>0.3612689963655923</v>
+        <v>0.4454235592241697</v>
       </c>
       <c r="Q34">
-        <v>12881.68852983939</v>
+        <v>34921.17083260594</v>
       </c>
       <c r="R34">
-        <v>115935.1967685545</v>
+        <v>314290.5374934535</v>
       </c>
       <c r="S34">
-        <v>0.06066859209987709</v>
+        <v>0.1059249093430715</v>
       </c>
       <c r="T34">
-        <v>0.06066859209987707</v>
+        <v>0.1059249093430715</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H35">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J35">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.518443</v>
+        <v>3.06494</v>
       </c>
       <c r="N35">
-        <v>10.555329</v>
+        <v>9.19482</v>
       </c>
       <c r="O35">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="P35">
-        <v>0.01896660530177307</v>
+        <v>0.01993561984792222</v>
       </c>
       <c r="Q35">
-        <v>676.2880413867437</v>
+        <v>1562.95097541712</v>
       </c>
       <c r="R35">
-        <v>6086.592372480693</v>
+        <v>14066.55877875408</v>
       </c>
       <c r="S35">
-        <v>0.003185098229154956</v>
+        <v>0.004740833037137011</v>
       </c>
       <c r="T35">
-        <v>0.003185098229154955</v>
+        <v>0.004740833037137012</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H36">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J36">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>27.17078333333333</v>
+        <v>26.60285633333334</v>
       </c>
       <c r="N36">
-        <v>81.51235</v>
+        <v>79.80856900000001</v>
       </c>
       <c r="O36">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="P36">
-        <v>0.1464674923604922</v>
+        <v>0.1730358280195447</v>
       </c>
       <c r="Q36">
-        <v>5222.558911269438</v>
+        <v>13565.99484983877</v>
       </c>
       <c r="R36">
-        <v>47003.03020142494</v>
+        <v>122093.953648549</v>
       </c>
       <c r="S36">
-        <v>0.02459656554895247</v>
+        <v>0.04114915795652647</v>
       </c>
       <c r="T36">
-        <v>0.02459656554895247</v>
+        <v>0.04114915795652648</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>192.2123056666667</v>
+        <v>509.945048</v>
       </c>
       <c r="H37">
-        <v>576.6369169999999</v>
+        <v>1529.835144</v>
       </c>
       <c r="I37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="J37">
-        <v>0.1679319086614409</v>
+        <v>0.2378071548967224</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.20011933333333</v>
+        <v>45.323218</v>
       </c>
       <c r="N37">
-        <v>237.600358</v>
+        <v>135.969654</v>
       </c>
       <c r="O37">
-        <v>0.4269381096265194</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="P37">
-        <v>0.4269381096265193</v>
+        <v>0.2948006957175362</v>
       </c>
       <c r="Q37">
-        <v>15223.23754613514</v>
+        <v>23112.35057852446</v>
       </c>
       <c r="R37">
-        <v>137009.1379152163</v>
+        <v>208011.1552067202</v>
       </c>
       <c r="S37">
-        <v>0.07169653162988891</v>
+        <v>0.07010571471016165</v>
       </c>
       <c r="T37">
-        <v>0.07169653162988887</v>
+        <v>0.07010571471016165</v>
       </c>
     </row>
   </sheetData>
